--- a/app/soap/data/soap_test.xlsx
+++ b/app/soap/data/soap_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmSpace\Flask_sys\sweep\app\soap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmSpace\Flask_sys\sweep\app\soap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51661091-8044-4599-ABE4-4C2B2645ACE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44D0DC6-FFAB-4B6D-99BC-42AC36806DB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -40,861 +41,10 @@
     <t>结算</t>
   </si>
   <si>
-    <t>{
-    "energy_saving": false,
-    "energy_saving_subsiby_amout": 0.00,
-    "enterprises_user": false,
-    "is_show_self_pickup": true,
-    "self_pickup_name": "朝阳自提点",
-    "self_pickup_address": "北京市朝阳区",
-    "self_pickup_tel": "0771-4227731",
-    "self_pickup_city_name": "北京市",
-    "self_pickup_town_name": "东城区",
-    "overseas_tax": 0.00,
-    "free_overseas_tax": 0.00,
-    "total_vip_privilege_money": 0.00,
-    "is_overseas": false,
-    "shop_is_auction": 0,
-    "is_auction_order": false,
-    "is_only_have_overseas_order": false,
-    "jit_supplier_type": 0,
-    "is_have_limit_product": 0,
-    "pre_submit_count": 0,
-    "is_support_point": true,
-    "point_only_use_for_ebook": true,
-    "activity_fee_total": 0.00,
-    "is_show_payment_level_one": true,
-    "payment_groups": [
-        {
-            "sort_nums": "1",
-            "pay_type_name": "非现金"
-        }
-    ],
-    "payment_list": [
-        {
-            "pay_id": "NoCash",
-            "pay_type": "NoCash",
-            "order_sequence_id": "0_98"
-        }
-    ],
-    "IsShowInvoiceLevelOne": true,
-    "InvoiceGroups": [
-        {
-            "SortNums": "1",
-            "InvoiceCategory": 0,
-            "InvoiceTitle": "",
-            "InvoiceContent": "",
-            "invoice_need": false,
-            "IsVatNeed": 0,
-            "InvoiceTel": null,
-            "invoice_book_content": "",
-            "invoice_nonbook_content": "",
-            "taxpayer_id": "",
-            "IsInvoiceNeed": false
-        }
-    ],
-    "is_show_shipment_level_one": true,
-    "shipment_groups": [
-        {
-            "sort_nums": "1",
-            "ship_type_name": "自动发货",
-            "ship_date_type": 0
-        }
-    ],
-    "errorCode": 0,
-    "error_message": null,
-    "statusCode": 0,
-    "app_setting": {
-        "is_support_point": true,
-        "paycenter_link": null,
-        "support_point": true
-    },
-    "bargin_total": 1.99,
-    "cart_id": 0,
-    "cart_items_count": 1,
-    "changed_points": 114,
-    "checkout_tips": "",
-    "coupon_amount4p": 0.00,
-    "coupon_number4p": "",
-    "coupon_type4p": 2112,
-    "thm_has_binded": false,
-    "thm_amount": 0.00,
-    "gift_card_number": null,
-    "gift_card_money": 0.00,
-    "gift_card_all_category": 0.00,
-    "gift_card_book_balance": 0.00,
-    "gift_card_order_type": 0,
-    "gift_card_use_type": 0,
-    "gift_card_is_support": 1,
-    "gift_card_config": [
-        {
-            "shop_id": 0,
-            "shop_name": "当当网",
-            "support": true
-        }
-    ],
-    "special_giftcard_dispaly_flag": 1,
-    "common_vip_balance": 0.00,
-    "cmcc_balance": 0.00,
-    "maybe_support_gift_card_type": [],
-    "no_seven_days_support_products": [],
-    "direct_checkout": true,
-    "card_un_active_count": 0,
-    "card_un_active_amount": 0.00,
-    "secret_key": null,
-    "mobile_for_key_back": null,
-    "clock_cash_balance": null,
-    "clock_cash_used_money": null,
-    "clock_cash_used_count": null,
-    "clock_cash_activity_id": 0,
-    "cust_cash": 0.00,
-    "cust_cash_used": 0.00,
-    "ddv_card_amount": 0.00,
-    "ddv_card_max_use_amount": 0.00,
-    "ddv_card_charge_amount": 0.00,
-    "ddv_card_use_amount": 0.00,
-    "is_support_ddvcard": false,
-    "no_support_ddvshops": null,
-    "cust_golden_bell": 407,
-    "cust_golden_bell_amount": 4.07,
-    "cust_golden_bell_max_use_amount": 0.85,
-    "cust_golden_bell_max_use_num": 85,
-    "cust_golden_bell_used": 85,
-    "cust_golden_bell_used_amount": 0.85,
-    "cust_email": "suzhaozheng@126.com",
-    "cust_id": 640949916,
-    "cust_point": 114,
-    "pre_cust_point": 0,
-    "cust_point_used": 114,
-    "book_extraction_code_used": 0.00,
-    "cust_type": 3,
-    "device_id": null,
-    "from_platform": 103,
-    "from_url": "30000",
-    "gift_card_charge": 0.00,
-    "gift_card_money_used": 0.00,
-    "gift_package_price": 0.00,
-    "green_package_price": 0.00,
-    "grand_order_id": 0,
-    "greeting_card_price": 0.00,
-    "total_gift_package_price": 0.00,
-    "is_agree": false,
-    "is_cattle": 0,
-    "is_no_safe_ip": false,
-    "is_set_payment_password": false,
-    "min_cust_cash_password_limit": 15.00,
-    "min_gift_card_password_limit": 0.00,
-    "dd_vcard_password_limit": 0.00,
-    "no_extra_charge_total": 0.00,
-    "order_flow_invalid_code": 0,
-    "order_from_ip": "",
-    "order_list": [
-        {
-            "large_order": false,
-            "wait_pay_time": 0,
-            "split_combine_type": 0,
-            "expected_delivery_time_start": null,
-            "expected_delivery_time_end": null,
-            "is_fdcorder": false,
-            "is_move_store": false,
-            "is_presale_order": false,
-            "is_auction_order": false,
-            "auction_deposit": 0.00,
-            "auction_commission": 0.00,
-            "presale_type": 0,
-            "deposit_amount": 0.00,
-            "balance_amount": 0.00,
-            "is_jit_order": false,
-            "sk_action_id": 0,
-            "is_support_point": true,
-            "activity_fee_total": 0.00,
-            "vip_privilege_money": 0.00,
-            "receivable_amount": 1.99,
-            "address_status": 0,
-            "addr_id": 0,
-            "address_tag": 0,
-            "warning_address": false,
-            "modify_quarter_id": 0,
-            "modify_quarter_name": null,
-            "app_setting": "",
-            "cart_items": [
-                {
-                    "is_limit_buy_excess_product": 0,
-                    "is_relation_product": 0,
-                    "promo_model": [],
-                    "order_sequence_id": "0_98",
-                    "shop_id": 0,
-                    "product_name": "墨菲定律",
-                    "product_id": "1900601494",
-                    "exchange_product_items": [],
-                    "relation_product_items": null,
-                    "gift_product_items": [],
-                    "is_exchange_product": 0,
-                    "is_gift_product": 0,
-                    "parent_product_id": 0,
-                    "product_count": 1,
-                    "promotion_id": 0,
-                    "promotion_type": "",
-                    "discount": "6.6333",
-                    "gift_card_rate": 0.0,
-                    "cart_prod_type": "",
-                    "dangdang_price": 1.99,
-                    "is_gift_packaging": true,
-                    "is_have_discount": false,
-                    "is_presale": false,
-                    "presale_type": 0,
-                    "deposit_amount": 0.00,
-                    "is_auction": false,
-                    "auction_deposit": 0.00,
-                    "auction_commission": 0.00,
-                    "item_id": 1900601494,
-                    "product_type": 98,
-                    "sale_price": 1.99,
-                    "store_name": "",
-                    "vip_price": 1.99,
-                    "district_mall_product_type": 0,
-                    "img_url": "//img3m4.ddimg.cn/88/35/1900601494-1_t_2.jpg",
-                    "has_seckill_promotion": false,
-                    "main_item_id": 0,
-                    "unique_id": "i_1900601494",
-                    "sale_attributes": [],
-                    "sale_size": null,
-                    "product_activity_type": 0,
-                    "district_price": null,
-                    "have_discount": false,
-                    "gift_packaging": true,
-                    "auction": false,
-                    "presale": false
-                }
-            ],
-            "cert_address": null,
-            "cert_city_id": 0,
-            "cert_city_name": null,
-            "cert_expiry_end_date": null,
-            "cert_expiry_start_date": null,
-            "cert_number": null,
-            "cert_province_id": 0,
-            "city_desc": null,
-            "city_gm_warehouse_id": 37,
-            "city_id": 0,
-            "city_is_book_express_to_door": true,
-            "city_is_cod": false,
-            "city_is_cod_pos": false,
-            "city_is_express_to_door": false,
-            "city_is_four_hour_to_door": false,
-            "city_is_gm_express_to_door": true,
-            "city_is_international_express": false,
-            "city_is_move_store_enabled": false,
-            "city_is_night_send": false,
-            "city_is_pick_up": false,
-            "city_is_post_disabled": false,
-            "city_is_to_door": false,
-            "city_name": null,
-            "city_ship_type_desc": "",
-            "city_warehouse_id": 30,
-            "country_id": 0,
-            "country_name": null,
-            "coupon_amount4p": 0.00,
-            "coupon_number4p": "",
-            "freight_coupon_allot_money": 0.00,
-            "freight_coupon_number": null,
-            "coupon_type4p": 2112,
-            "cur_edit_step": -1,
-            "cust_cash_used": 0.00,
-            "cust_choice_package": 0,
-            "cust_name": "沈轻箫",
-            "cust_point_used": 114,
-            "cust_tel": "17612280316",
-            "expect_delivery_time_end": null,
-            "expect_delivery_time_start": null,
-            "first_month_fee_intro": null,
-            "first_month_fee_type": 0,
-            "first_month_return_fee": null,
-            "flow_step": 3,
-            "free_shippingfee_gap": -1.00,
-            "gift_card_charge": 0.00,
-            "giftcard_exception_tips": "",
-            "gift_package_price": 0.00,
-            "gm_free_shippingfee_gap": null,
-            "gm_free_shippingfee_gap_ship_express": null,
-            "gm_free_shippingfee_gap_ship_plain": null,
-            "greeting_card_price": 0.00,
-            "has_charge_product": false,
-            "has_order_promotion": false,
-            "display_order_promotion": null,
-            "contain3c": 0,
-            "invoice_content": "",
-            "invoice_edit_status": false,
-            "invoice_need": false,
-            "invoice_title": "",
-            "invoice_tel": "",
-            "invoice_category": 0,
-            "invoice_restrict": 2,
-            "invoice_book_content": "",
-            "invoice_nonbook_content": "",
-            "taxpayer_id": "",
-            "is_support_paper_taxpayer_id": false,
-            "is_deposit_money_free": false,
-            "is_first_cod": false,
-            "is_support_gift_package": false,
-            "is_support_alipay_scan_code": false,
-            "is_invalid_address": true,
-            "isInvoiceContentValid": true,
-            "is_local_arrive": true,
-            "is_need_valid_zip": false,
-            "is_only_gift": false,
-            "is_open_gift_package": 1,
-            "is_other_pay": 0,
-            "is_product_ems_disabled": false,
-            "is_product_post_disabled": false,
-            "is_product_upsdisabled": false,
-            "is_public_name": 0,
-            "is_share_package_order": 0,
-            "is_show_map_api": true,
-            "is_show_pick_up_limit": false,
-            "is_show_send_msg": false,
-            "is_show_shipment_festiva_tip": false,
-            "is_support_baidu_map": 1,
-            "is_suppot_free_shipping_fee": 0,
-            "is_surpport_share_package": false,
-            "is_remind_share_package": false,
-            "is_vat_need": 0,
-            "lack_property": [
-                {
-                    "address_names": ""
-                }
-            ],
-            "limit_buy": [],
-            "mobile_price": null,
-            "monthly_fee": null,
-            "monthly_return_fee": null,
-            "need_send_order_sms": 0,
-            "net_type": null,
-            "old_town_id": 0,
-            "order_bargin_total": 1.99,
-            "order_gift_dict": null,
-            "order_items_type": 0,
-            "order_payable_amount": 0.00,
-            "order_sequence_id": "0_98",
-            "order_shipping_fee": 0.00,
-            "order_type": 98,
-            "is_happy_reader": false,
-            "other_pay_id": 0,
-            "over_sms_cost": null,
-            "package_list": [
-                {
-                    "is_temporary_or_transport": 0,
-                    "is_send_together": 1,
-                    "is_presale_package": false,
-                    "activity_fee_list": [],
-                    "activity_fee_total": 0.00,
-                    "activity_list": [],
-                    "address_names": null,
-                    "cart_item_count": 0,
-                    "cod_product_ids": null,
-                    "collection_deduct_info": null,
-                    "coupon_amount": null,
-                    "coupon_number": null,
-                    "cust_cash_used": null,
-                    "cust_point_used": 0,
-                    "delay_desc": null,
-                    "gift_card_charge": null,
-                    "gift_package_price": null,
-                    "greeting_card_price": null,
-                    "has_charge_product": false,
-                    "have_gm": false,
-                    "have_publication": 0,
-                    "is_cod_limit": true,
-                    "is_division_package_order": 0,
-                    "is_ebook": true,
-                    "is_ebook_order": 1,
-                    "is_have_lack_type": false,
-                    "is_have_no_shipment": false,
-                    "is_limit_buy": false,
-                    "is_limit_small_warehouse": false,
-                    "is_meet_mulit": false,
-                    "is_split_product_order": 0,
-                    "jit_supplier_id": 0,
-                    "lack_product_ids": null,
-                    "move_store_flag": null,
-                    "not_cod_product_names": null,
-                    "order_gift_dict": null,
-                    "order_id": 0,
-                    "order_items_type": 3,
-                    "order_prom_subtract": null,
-                    "package_bargin_total": null,
-                    "package_id": 1,
-                    "package_payable_amount": 0.00,
-                    "package_shipping_fee": 0.00,
-                    "point_deduction_amount": null,
-                    "product_ids": null,
-                    "prods_limit_cod": null,
-                    "product_list": [
-                        {
-                            "unique_id": "i_1900601494",
-                            "move_from_warehouse_list": [],
-                            "bargain_price": 1.99,
-                            "is_pod": false,
-                            "template_id": 0,
-                            "category_id": 10006055,
-                            "category_path": "98.01.21.02.01.00",
-                            "activity_type": 0,
-                            "cod_small_warehouse_id": 0,
-                            "coupon_limit": 0,
-                            "dang_dang_price": null,
-                            "ex_change_product_items": null,
-                            "gift_card_charge": null,
-                            "is_ebook_product": true,
-                            "is_exchange_product": false,
-                            "is_gift_packaging": false,
-                            "is_gift_product": false,
-                            "is_limit_buy": false,
-                            "is_presale": false,
-                            "presale_type": 0,
-                            "is_product_cod_permit": false,
-                            "is_second_kill": false,
-                            "item_id": 0,
-                            "limit_buy_count": 0,
-                            "medium": 22,
-                            "medium_scope_id": 4,
-                            "m_promotin_id": 0,
-                            "m_promotion_type": null,
-                            "original_price": 30.00,
-                            "parent_product_id": 0,
-                            "permanent_id": null,
-                            "privilege_code_discount_amount": null,
-                            "product_count": 1,
-                            "product_id": 1900601494,
-                            "product_name": "墨菲定律",
-                            "product_type": 98,
-                            "promotion_id": 0,
-                            "promotions": null,
-                            "promotion_type": null,
-                            "sale_price": 1.99,
-                            "shipping_fee": null,
-                            "shop_id": 0,
-                            "store_name": null,
-                            "trace_id": null,
-                            "vip_price": 1.99,
-                            "volume": 0.0,
-                            "weight": 0.0,
-                            "is_free_refund_in7d": false,
-                            "img_url": "//img3m4.ddimg.cn/88/35/1900601494-1_t_2.jpg",
-                            "presale_model": null,
-                            "collection_promo_models": null,
-                            "order_promo_models": null,
-                            "district_mall_product_type": 0,
-                            "district_price": null,
-                            "is_virtual_product": false,
-                            "display_virtual_items": null,
-                            "is_more_buy_more_discount_product": false,
-                            "is_outlets_product": false,
-                            "is_most_worth": false,
-                            "is_new_product": false,
-                            "is_decrease_with_num_limit": false,
-                            "is_mobile_price": false,
-                            "display_gifts": null,
-                            "vip_discount_amount": 0.00,
-                            "promo_tag": null,
-                            "sale_color": null,
-                            "sale_size": null,
-                            "deduct_points": 0,
-                            "is_pmin_limit_buy": false,
-                            "min_limit_buy_count": 0,
-                            "overseas_tax": 0.00,
-                            "mpromotion_type": null,
-                            "limit_buy": 0,
-                            "outlets_product": false,
-                            "most_worth": false,
-                            "new_product": false,
-                            "ebook_product": true,
-                            "exchange_product": false,
-                            "gift_product": false,
-                            "gift_packaging": false,
-                            "presale": false,
-                            "virtual_product": false,
-                            "free_refund_in7d": false,
-                            "decrease_with_num_limit": false,
-                            "second_kill": false,
-                            "mobile_price": false,
-                            "pmin_limit_buy": false,
-                            "product_cod_permit": false,
-                            "pod": false,
-                            "more_buy_more_discount_product": false,
-                            "mpromotin_id": 0
-                        }
-                    ],
-                    "send_time": null,
-                    "send_time_tips": "",
-                    "shop_id": 0,
-                    "store_id": 300,
-                    "store_name": null,
-                    "split_combine_type": "NonSplitCombine",
-                    "total": 1.99,
-                    "jit_supplier_type": 0,
-                    "estimated_delivery_time": null,
-                    "latest_pay_time": null,
-                    "share_same_promo_or_coupon": false,
-                    "calc_type": 0,
-                    "calc_value": 0.0,
-                    "transport_arrivalwh_date": null,
-                    "presale_package": false,
-                    "ebook": true,
-                    "limit_buy": false,
-                    "cod_limit": true,
-                    "limit_small_warehouse": false,
-                    "have_lack_type": false,
-                    "have_no_shipment": false,
-                    "meet_mulit": false
-                }
-            ],
-            "packing_type_name": "",
-            "parent_order_id": 0,
-            "payer_email": null,
-            "payer_message": null,
-            "payer_mess_id": 0,
-            "payer_phone": null,
-            "pay_for_other_long_url": null,
-            "pay_for_other_short_url": null,
-            "pay_id": 50,
-            "pay_type": 5,
-            "pay_type_name": "非现金支付",
-            "pick_up_id": 0,
-            "pick_up_limit_tips": "",
-            "pick_up_name": null,
-            "pick_up_town_id": 0,
-            "pick_up_town_name": "",
-            "pick_up_city_id": 0,
-            "pick_up_city_name": "",
-            "pick_up_quarter_id": 0,
-            "pick_up_quarter_name": "",
-            "pick_up_address": "",
-            "pick_up_tel": "",
-            "plan_fee_type_name": null,
-            "plan_id": 0,
-            "plan_name": null,
-            "plan_period": 0,
-            "plan_period_id": 0,
-            "point_deduction_amount": 1.14,
-            "pre_store_fee": null,
-            "price_structure_id": 0,
-            "probable_gift_card_amount": 0.00,
-            "probable_gift_card_charge": 0.00,
-            "prods_lack": [],
-            "prods_limit_cod": [],
-            "prods_limit_ship": null,
-            "promotion_type": 0,
-            "province_id": 0,
-            "province_name": null,
-            "public_coupon_number": "",
-            "quarter_id": 0,
-            "quarter_name": null,
-            "register_mb": "17612280316",
-            "remain_cash": 0.00,
-            "remain_gift_card": 0.00,
-            "return_money_description": null,
-            "self_exceptions": null,
-            "self_exceptions2": null,
-            "sender_description": "当当电子书",
-            "ship_address": null,
-            "ship_date_type": 0,
-            "ship_mb": null,
-            "ship_message": "",
-            "ship_name": null,
-            "ship_tel": null,
-            "ship_type": 8,
-            "ship_type_name": "自动发货",
-            "ship_zip": null,
-            "shop_id": 0,
-            "shop_is_auction": 0,
-            "shop_name": "当当网",
-            "shop_prov_cod": 0,
-            "sim_card_balance": null,
-            "sim_card_city_id": 0,
-            "sim_card_city_name": null,
-            "sim_card_province_id": 0,
-            "sim_card_province_name": null,
-            "sort_num": 1,
-            "town_id": 0,
-            "town_name": null,
-            "cust_gift_card_used": 0.00,
-            "ship_mb_regular_express": "^((13[0-9])|(14[0-9])|(15[0-9])|(16[0-9])|(17[0-9])|(18[0-9])|(19[0-9]))\\d{8}$",
-            "gift_message": null,
-            "gift_message_receiver": null,
-            "gift_message_sender": null,
-            "gift_sender_phone": null,
-            "greetingcard_name": null,
-            "greetingcard_type_id": 0,
-            "is_need_greetingcard": false,
-            "print_price": false,
-            "is_product_package": false,
-            "is_valid_product_package": false,
-            "package_name": null,
-            "package_type_id": 0,
-            "little_image_url": null,
-            "medium_image_url": null,
-            "big_image_url": null,
-            "card_little_image_url": null,
-            "card_big_image_url": null,
-            "card_price": null,
-            "is_gift_package": false,
-            "is_has_no_storage_jit_package": 0,
-            "identity_num": null,
-            "conflic_code": 0,
-            "is_overseas": false,
-            "overseas_tax": 0.00,
-            "free_overseas_tax": 0.00,
-            "from_plat_form": 103,
-            "is_show_shipment": false,
-            "shop_type": 0,
-            "district_mall_order_type": 0,
-            "energy_saving_order": false,
-            "customs_clearance_mode": 0,
-            "customs_declare_dealer": 0,
-            "tariff": null,
-            "excise": null,
-            "vat": null,
-            "baby_in_book_order": false,
-            "baby_in_book_id": 0,
-            "delayed_receive": null,
-            "is_all_nocash_pay": true,
-            "checkout_type": 10,
-            "is_installment": 0,
-            "installment_type": 0,
-            "installment_nper": 0,
-            "handling_fee": null,
-            "repayment_rule": null,
-            "is_vddmoney": false,
-            "total_amount": 1.99,
-            "order_forcibly_splitted": false,
-            "detailed_address_point_x": 0.0,
-            "detailed_address_point_y": 0.0,
-            "is_support_pickup_without_price": false,
-            "is_default_address": false,
-            "pack_types": [
-                0
-            ],
-            "first_send_time": "",
-            "first_send_time_tips": "",
-            "is_support_green_package": false,
-            "green_package_selected": false,
-            "is_cheap_express_order": false,
-            "green_package_price_config": null,
-            "template": null,
-            "pin_tuan_activity_id": 0,
-            "pin_tuan_id": 0,
-            "get_password_way": null,
-            "mobile_for_activate": null,
-            "support_gift_card_mobile_verify": false,
-            "evidences": [],
-            "pick_up_cabinet": {
-                "is_support_pick_up_cabinet": 0,
-                "switch_status": 0,
-                "cabinet_code": null,
-                "cabinet_name": null,
-                "cabinet_address": null,
-                "cabinet_type": null,
-                "latitude": null,
-                "longitude": null,
-                "distance": 0.0,
-                "is_recommend": 0,
-                "cabinets": [],
-                "distance_display": "0m"
-            },
-            "is_not_show_shipping_date_type_any_time": false,
-            "used_coupon_types": [
-                "UsePoint",
-                "GoldenBell"
-            ],
-            "free_shipping_fee": false,
-            "support_pickup_without_price": false,
-            "deposit_money_free": false,
-            "coupon_type": 0,
-            "coupon_amount": 0.00,
-            "coupon_number": "",
-            "cheap_express_order": false,
-            "product_ems_disabled": false,
-            "product_post_disabled": false,
-            "invalid_address": true,
-            "need_valid_zip": false,
-            "surpport_share_package": false,
-            "fdcorder": false,
-            "presale_order": false,
-            "jit_order": false,
-            "overseas": false,
-            "vddmoney": false,
-            "show_pick_up_limit": false,
-            "show_shipment_festiva_tip": false,
-            "remind_share_package": false,
-            "support_gift_package": false,
-            "product_upsdisabled": false,
-            "auction_order": false,
-            "valid_product_package": false,
-            "happy_reader": false,
-            "show_map_api": true,
-            "show_shipment": false,
-            "support_alipay_scan_code": false,
-            "local_arrive": true,
-            "move_store": false,
-            "only_gift": false,
-            "support_paper_taxpayer_id": false,
-            "all_nocash_pay": true,
-            "first_cod": false,
-            "default_address": false,
-            "show_send_msg": false,
-            "product_package": false,
-            "need_greetingcard": false,
-            "gift_package": false,
-            "support_green_package": false,
-            "support_point": true
-        }
-    ],
-    "gift_package": null,
-    "order_promotion": [],
-    "collection_deduct_info": [],
-    "colletion_promo_info": [],
-    "out_refer": null,
-    "payable_amount": 0.00,
-    "deposit_amount": 0.00,
-    "balance_amount": 0.00,
-    "presale_type": 0,
-    "payment_password_enabled": true,
-    "permanent_id": "20200721015930143856163189044707581",
-    "point_amount": 1.14,
-    "point_deduction_amount": 1.14,
-    "point_max_amonut": 1.14,
-    "point_rate": 100.0,
-    "point_max_percentage": 50.0,
-    "point_config_max_amonut": 50.00,
-    "privilege_code_discount_amount": 0.00,
-    "promo_discount_amount": 0.00,
-    "public_coupon_number": "",
-    "register_mb": "17612280316",
-    "remain_cash": 0.00,
-    "remain_gift_card": 0.00,
-    "second_kill_info": null,
-    "shipping_fee": 0.00,
-    "shopping_cart_url": "http://shopping.dangdang.com/shoppingcart/shopping_cart.aspx",
-    "sim_card_id": 0,
-    "sk_action_id": 0,
-    "product_ids": "1900601494",
-    "total": 1.99,
-    "trace_id": "20200721015930143856163189044707581",
-    "is_first_checkout": 0,
-    "is_show_consignee": 0,
-    "order_sequence_ids": "0_98,",
-    "is_send_together": 1,
-    "show_send_together": true,
-    "crowdfunding_forbid": "1,2,4,8",
-    "checkout_type": 10,
-    "district_mall_order_type": 0,
-    "degradation_type": 0,
-    "auction_win_price": 0.00,
-    "auction_deposit_amount": 0.00,
-    "auction_commission_amount": 0.00,
-    "point_limit_info": {
-        "total_points": 114,
-        "pre_total_points": 0,
-        "deduct_sum_points": 0,
-        "products": []
-    },
-    "spu_limit_buys": null,
-    "freight_coupon_number": "",
-    "freight_coupon_allot_money": 0.00,
-    "vdd_money": false,
-    "lack_product": {
-        "lack_stock_products": null,
-        "over_time_products": null,
-        "multiple_gift_lack_stock_products": null,
-        "limit_buy_products": null,
-        "min_buy_count_lack_products": null,
-        "set_meal_lack_products": null,
-        "lack_gift_count": 0,
-        "lack_item_count": 0,
-        "lack_item_ids": "",
-        "lack_gift_product_ids": "",
-        "contain_min_buy_product": false,
-        "product_id": 0
-    },
-    "oversea_minimum_payable": null,
-    "coupons": [],
-    "optima_coupons": null,
-    "exchange_rate": 0,
-    "max_use_amount": null,
-    "is_all_online": false,
-    "use_coupons_items": [],
-    "is_support_red_package_activity": false,
-    "is_show_red_package_activity_dialog": false,
-    "red_package_activity_serial_num": 0,
-    "red_package_activity_remain_num": 0,
-    "red_package_activity_title": null,
-    "red_package_activity_content": null,
-    "red_package_activity_icon": null,
-    "red_package_activity_link": null,
-    "grand_order_sign": null,
-    "book_gift_ebook_description": null,
-    "double_points_description": null,
-    "reurn_coupon": null,
-    "deduct_sum_points": 0,
-    "pay_duration": 0,
-    "optimal_coupon_combination": false,
-    "can_use_book_extraction_code": false,
-    "can_get_free_coupon": false,
-    "warn_get_free_coupon_delay": false,
-    "special_province_ids": [
-        "165"
-    ],
-    "digit_cust_type": 5,
-    "app_version": null,
-    "payment_cashier": null,
-    "we_chat_other_pay": false,
-    "used_coupon_types": [
-        "UsePoint",
-        "GoldenBell"
-    ],
-    "show_self_pickup": true,
-    "coupon_type": 0,
-    "coupon_amount": 0.00,
-    "coupon_number": "",
-    "overseas": false,
-    "only_have_overseas_order": false,
-    "no_safe_ip": false,
-    "set_payment_password": false,
-    "agree": false,
-    "all_online": false,
-    "support_red_package_activity": false,
-    "show_red_package_activity_dialog": false,
-    "auction_order": false,
-    "show_shipment_level_one": true,
-    "support_ddvcard": false,
-    "support_point": true
-}</t>
-  </si>
-  <si>
     <t>use_dangdang_money</t>
   </si>
   <si>
     <t>使用礼品卡</t>
-  </si>
-  <si>
-    <t>&lt;?xml version='1.0' encoding='utf-8' standalone='yes' ?&gt;
-&lt;inputObject&gt;
-    &lt;deviceType&gt;&lt;![CDATA[Android]]&gt;&lt;/deviceType&gt;
-    &lt;checkout_type&gt;&lt;![CDATA[10]]&gt;&lt;/checkout_type&gt;
-    &lt;dangdang_money_payable&gt;&lt;![CDATA[0.8]]&gt;&lt;/dangdang_money_payable&gt;
-    &lt;from_platform&gt;&lt;![CDATA[103]]&gt;&lt;/from_platform&gt;
-    &lt;immediately_buy&gt;&lt;![CDATA[1]]&gt;&lt;/immediately_buy&gt;
-    &lt;ddOrder&gt;&lt;![CDATA[1]]&gt;&lt;/ddOrder&gt;
-    &lt;version&gt;&lt;![CDATA[1]]&gt;&lt;/version&gt;
-    &lt;gift_card_use_type&gt;&lt;![CDATA[-1]]&gt;&lt;/gift_card_use_type&gt;
-    &lt;retain_type&gt;&lt;![CDATA[1]]&gt;&lt;/retain_type&gt;
-    &lt;token&gt;&lt;![CDATA[e_3a9958bbe86c178046baa8f88a7b7ef3b0c4e8fd17c0070b209172e57e6ef364]]&gt;&lt;/token&gt;
-    &lt;order_sequence_id&gt;&lt;![CDATA[0_0]]&gt;&lt;/order_sequence_id&gt;
-    &lt;cart_id&gt;&lt;![CDATA[624787430]]&gt;&lt;/cart_id&gt;
-    &lt;is_use_coupon&gt;&lt;![CDATA[1]]&gt;&lt;/is_use_coupon&gt;
-    &lt;products_id_count&gt;&lt;![CDATA[1901093158.1]]&gt;&lt;/products_id_count&gt;
-    &lt;cust_id&gt;&lt;![CDATA[624787430]]&gt;&lt;/cust_id&gt;
-&lt;/inputObject&gt;</t>
   </si>
   <si>
     <t>{"energy_saving":false,"energy_saving_subsiby_amout":0.00,"enterprises_user":false,"is_show_self_pickup":true,"self_pickup_name":"朝阳自提点","self_pickup_address":"北京市朝阳区","self_pickup_tel":"0771-4227731","self_pickup_city_name":"北京市","self_pickup_town_name":"东城区","overseas_tax":0.00,"free_overseas_tax":0.00,"total_vip_privilege_money":0.00,"is_overseas":false,"shop_is_auction":0,"is_auction_order":false,"is_only_have_overseas_order":false,"jit_supplier_type":0,"is_have_limit_product":0,"pre_submit_count":0,"is_support_point":true,"point_only_use_for_ebook":true,"activity_fee_total":0.00,"is_show_payment_level_one":true,"payment_groups":[{"sort_nums":"1","pay_type_name":"网上支付"}],"payment_list":[{"pay_id":"Online","pay_type":"Online","order_sequence_id":"0_98"}],"IsShowInvoiceLevelOne":true,"InvoiceGroups":[{"SortNums":"1","InvoiceCategory":0,"InvoiceTitle":"","InvoiceContent":null,"invoice_need":false,"IsVatNeed":0,"InvoiceTel":null,"invoice_book_content":null,"invoice_nonbook_content":null,"taxpayer_id":"","IsInvoiceNeed":false}],"is_show_shipment_level_one":true,"shipment_groups":[{"sort_nums":"1","ship_type_name":"自动发货","ship_date_type":0}],"errorCode":0,"error_message":null,"statusCode":0,"app_setting":{"is_support_point":true,"paycenter_link":null,"support_point":true},"bargin_total":5.99,"cart_id":0,"cart_items_count":1,"changed_points":14,"checkout_tips":"","coupon_amount4p":0.01,"coupon_number4p":"","coupon_type4p":2115,"thm_has_binded":false,"thm_amount":0.00,"gift_card_number":null,"gift_card_money":11.44,"gift_card_all_category":11.44,"gift_card_book_balance":0.00,"gift_card_order_type":0,"gift_card_use_type":-1,"gift_card_is_support":1,"gift_card_config":[{"shop_id":0,"shop_name":"当当网","support":true}],"special_giftcard_dispaly_flag":1,"common_vip_balance":0.00,"cmcc_balance":0.00,"maybe_support_gift_card_type":[-1],"no_seven_days_support_products":[],"direct_checkout":true,"card_un_active_count":0,"card_un_active_amount":0.00,"secret_key":null,"mobile_for_key_back":null,"clock_cash_balance":null,"clock_cash_used_money":null,"clock_cash_used_count":null,"clock_cash_activity_id":0,"cust_cash":0.00,"cust_cash_used":0.00,"ddv_card_amount":0.00,"ddv_card_max_use_amount":0.00,"ddv_card_charge_amount":0.00,"ddv_card_use_amount":0.00,"is_support_ddvcard":false,"no_support_ddvshops":null,"cust_golden_bell":22,"cust_golden_bell_amount":0.22,"cust_golden_bell_max_use_amount":0.22,"cust_golden_bell_max_use_num":22,"cust_golden_bell_used":22,"cust_golden_bell_used_amount":0.22,"cust_email":"1990000000293217@ddmobilphone__user.com","cust_id":624787430,"cust_point":14,"pre_cust_point":0,"cust_point_used":14,"book_extraction_code_used":0.00,"cust_type":0,"device_id":null,"from_platform":103,"from_url":null,"gift_card_charge":0.00,"gift_card_money_used":0.80,"gift_package_price":0.00,"green_package_price":0.00,"grand_order_id":0,"greeting_card_price":0.00,"total_gift_package_price":0.00,"is_agree":false,"is_cattle":0,"is_no_safe_ip":false,"is_set_payment_password":false,"min_cust_cash_password_limit":15.00,"min_gift_card_password_limit":0.00,"dd_vcard_password_limit":0.00,"no_extra_charge_total":4.82,"order_flow_invalid_code":0,"order_from_ip":null,"order_list":[{"large_order":false,"wait_pay_time":0,"split_combine_type":0,"expected_delivery_time_start":null,"expected_delivery_time_end":null,"is_fdcorder":false,"is_move_store":false,"is_presale_order":false,"is_auction_order":false,"auction_deposit":0.00,"auction_commission":0.00,"presale_type":0,"deposit_amount":0.00,"balance_amount":0.00,"is_jit_order":false,"sk_action_id":0,"is_support_point":true,"activity_fee_total":0.00,"vip_privilege_money":0.00,"receivable_amount":5.99,"address_status":0,"addr_id":0,"address_tag":0,"warning_address":false,"modify_quarter_id":0,"modify_quarter_name":null,"app_setting":"","cart_items":[{"is_limit_buy_excess_product":0,"is_relation_product":0,"promo_model":[],"order_sequence_id":"0_98","shop_id":0,"product_name":"好文案一句话就够了","product_id":"1901093158","exchange_product_items":[],"relation_product_items":null,"gift_product_items":[],"is_exchange_product":0,"is_gift_product":0,"parent_product_id":0,"product_count":1,"promotion_id":0,"promotion_type":"","discount":"14.2619","gift_card_rate":0.0,"cart_prod_type":"","dangdang_price":5.99,"is_gift_packaging":true,"is_have_discount":false,"is_presale":false,"presale_type":0,"deposit_amount":0.00,"is_auction":false,"auction_deposit":0.00,"auction_commission":0.00,"item_id":1901093158,"product_type":98,"sale_price":5.99,"store_name":"","vip_price":5.99,"district_mall_product_type":0,"img_url":"//img3m8.ddimg.cn/19/6/1901093158-1_t_3.jpg","has_seckill_promotion":false,"main_item_id":0,"unique_id":"i_1901093158","sale_attributes":[],"sale_size":null,"product_activity_type":0,"district_price":null,"have_discount":false,"gift_packaging":true,"presale":false,"auction":false}],"cert_address":null,"cert_city_id":0,"cert_city_name":null,"cert_expiry_end_date":null,"cert_expiry_start_date":null,"cert_number":null,"cert_province_id":0,"city_desc":null,"city_gm_warehouse_id":37,"city_id":0,"city_is_book_express_to_door":true,"city_is_cod":false,"city_is_cod_pos":false,"city_is_express_to_door":false,"city_is_four_hour_to_door":false,"city_is_gm_express_to_door":true,"city_is_international_express":false,"city_is_move_store_enabled":false,"city_is_night_send":false,"city_is_pick_up":false,"city_is_post_disabled":false,"city_is_to_door":false,"city_name":null,"city_ship_type_desc":"","city_warehouse_id":30,"country_id":0,"country_name":null,"coupon_amount4p":0.01,"coupon_number4p":"C0620080517400jAjTJelN","freight_coupon_allot_money":0.00,"freight_coupon_number":null,"coupon_type4p":2115,"cur_edit_step":-1,"cust_cash_used":0.00,"cust_choice_package":0,"cust_name":"1990000000293217","cust_point_used":14,"cust_tel":"19900000002","expect_delivery_time_end":null,"expect_delivery_time_start":null,"first_month_fee_intro":null,"first_month_fee_type":0,"first_month_return_fee":null,"flow_step":3,"free_shippingfee_gap":-1.00,"gift_card_charge":0.00,"giftcard_exception_tips":"","gift_package_price":0.00,"gm_free_shippingfee_gap":null,"gm_free_shippingfee_gap_ship_express":null,"gm_free_shippingfee_gap_ship_plain":null,"greeting_card_price":0.00,"has_charge_product":false,"has_order_promotion":false,"display_order_promotion":null,"contain3c":0,"invoice_content":null,"invoice_edit_status":false,"invoice_need":false,"invoice_title":"","invoice_tel":null,"invoice_category":0,"invoice_restrict":2,"invoice_book_content":null,"invoice_nonbook_content":null,"taxpayer_id":"","is_support_paper_taxpayer_id":false,"is_deposit_money_free":false,"is_first_cod":false,"is_support_gift_package":false,"is_support_alipay_scan_code":false,"is_invalid_address":true,"isInvoiceContentValid":true,"is_local_arrive":true,"is_need_valid_zip":false,"is_only_gift":false,"is_open_gift_package":1,"is_other_pay":0,"is_product_ems_disabled":false,"is_product_post_disabled":false,"is_product_upsdisabled":false,"is_public_name":0,"is_share_package_order":0,"is_show_map_api":true,"is_show_pick_up_limit":false,"is_show_send_msg":false,"is_show_shipment_festiva_tip":false,"is_support_baidu_map":1,"is_suppot_free_shipping_fee":0,"is_surpport_share_package":false,"is_remind_share_package":false,"is_vat_need":0,"lack_property":[{"address_names":""}],"limit_buy":[],"mobile_price":null,"monthly_fee":null,"monthly_return_fee":null,"need_send_order_sms":0,"net_type":null,"old_town_id":0,"order_bargin_total":5.99,"order_gift_dict":null,"order_items_type":0,"order_payable_amount":4.82,"order_sequence_id":"0_98","order_shipping_fee":0.00,"order_type":98,"is_happy_reader":false,"other_pay_id":0,"over_sms_cost":null,"package_list":[{"is_temporary_or_transport":0,"is_send_together":1,"is_presale_package":false,"activity_fee_list":[],"activity_fee_total":0.00,"activity_list":[],"address_names":null,"cart_item_count":0,"cod_product_ids":null,"collection_deduct_info":null,"coupon_amount":null,"coupon_number":null,"cust_cash_used":null,"cust_point_used":0,"delay_desc":null,"gift_card_charge":null,"gift_package_price":null,"greeting_card_price":null,"has_charge_product":false,"have_gm":false,"have_publication":0,"is_cod_limit":true,"is_division_package_order":0,"is_ebook":true,"is_ebook_order":1,"is_have_lack_type":false,"is_have_no_shipment":false,"is_limit_buy":false,"is_limit_small_warehouse":false,"is_meet_mulit":false,"is_split_product_order":0,"jit_supplier_id":0,"lack_product_ids":null,"move_store_flag":null,"not_cod_product_names":null,"order_gift_dict":null,"order_id":0,"order_items_type":3,"order_prom_subtract":null,"package_bargin_total":null,"package_id":1,"package_payable_amount":4.82,"package_shipping_fee":0.00,"point_deduction_amount":null,"product_ids":null,"prods_limit_cod":null,"product_list":[{"unique_id":"i_1901093158","move_from_warehouse_list":[],"bargain_price":5.99,"is_pod":false,"template_id":0,"category_id":10006179,"category_path":"98.01.22.03.01.00","activity_type":0,"cod_small_warehouse_id":0,"coupon_limit":0,"dang_dang_price":null,"ex_change_product_items":null,"gift_card_charge":null,"is_ebook_product":true,"is_exchange_product":false,"is_gift_packaging":false,"is_gift_product":false,"is_limit_buy":false,"is_presale":false,"presale_type":0,"is_product_cod_permit":false,"is_second_kill":false,"item_id":0,"limit_buy_count":0,"medium":22,"medium_scope_id":4,"m_promotin_id":0,"m_promotion_type":null,"original_price":42.00,"parent_product_id":0,"permanent_id":null,"privilege_code_discount_amount":null,"product_count":1,"product_id":1901093158,"product_name":"好文案一句话就够了","product_type":98,"promotion_id":0,"promotions":null,"promotion_type":null,"sale_price":5.99,"shipping_fee":null,"shop_id":0,"store_name":null,"trace_id":null,"vip_price":5.99,"volume":0.0,"weight":0.0,"is_free_refund_in7d":false,"img_url":"//img3m8.ddimg.cn/19/6/1901093158-1_t_3.jpg","presale_model":null,"collection_promo_models":null,"order_promo_models":null,"district_mall_product_type":0,"district_price":null,"is_virtual_product":false,"display_virtual_items":null,"is_more_buy_more_discount_product":false,"is_outlets_product":false,"is_most_worth":false,"is_new_product":false,"is_decrease_with_num_limit":false,"is_mobile_price":false,"display_gifts":null,"vip_discount_amount":0.00,"promo_tag":null,"sale_color":null,"sale_size":null,"deduct_points":0,"is_pmin_limit_buy":false,"min_limit_buy_count":0,"overseas_tax":0.00,"second_kill":false,"free_refund_in7d":false,"ebook_product":true,"exchange_product":false,"gift_product":false,"gift_packaging":false,"virtual_product":false,"presale":false,"product_cod_permit":false,"pod":false,"outlets_product":false,"most_worth":false,"new_product":false,"decrease_with_num_limit":false,"mobile_price":false,"pmin_limit_buy":false,"more_buy_more_discount_product":false,"mpromotin_id":0,"mpromotion_type":null,"limit_buy":0}],"send_time":null,"send_time_tips":"","shop_id":0,"store_id":300,"store_name":null,"split_combine_type":"NonSplitCombine","total":5.99,"jit_supplier_type":0,"estimated_delivery_time":null,"latest_pay_time":null,"share_same_promo_or_coupon":false,"calc_type":0,"calc_value":0.0,"transport_arrivalwh_date":null,"have_lack_type":false,"have_no_shipment":false,"meet_mulit":false,"limit_small_warehouse":false,"limit_buy":false,"presale_package":false,"ebook":true,"cod_limit":true}],"packing_type_name":"","parent_order_id":0,"payer_email":null,"payer_message":null,"payer_mess_id":0,"payer_phone":null,"pay_for_other_long_url":null,"pay_for_other_short_url":null,"pay_id":-1,"pay_type":1,"pay_type_name":"网上支付","pick_up_id":0,"pick_up_limit_tips":"","pick_up_name":null,"pick_up_town_id":0,"pick_up_town_name":"","pick_up_city_id":0,"pick_up_city_name":"","pick_up_quarter_id":0,"pick_up_quarter_name":"","pick_up_address":"","pick_up_tel":"","plan_fee_type_name":null,"plan_id":0,"plan_name":null,"plan_period":0,"plan_period_id":0,"point_deduction_amount":0.14,"pre_store_fee":null,"price_structure_id":0,"probable_gift_card_amount":0.00,"probable_gift_card_charge":0.00,"prods_lack":[],"prods_limit_cod":[],"prods_limit_ship":null,"promotion_type":0,"province_id":0,"province_name":null,"public_coupon_number":"","quarter_id":0,"quarter_name":null,"register_mb":"19900000002","remain_cash":0.00,"remain_gift_card":11.44,"return_money_description":null,"self_exceptions":null,"self_exceptions2":null,"sender_description":"当当电子书","ship_address":null,"ship_date_type":0,"ship_mb":null,"ship_message":"","ship_name":null,"ship_tel":null,"ship_type":8,"ship_type_name":"自动发货","ship_zip":null,"shop_id":0,"shop_is_auction":0,"shop_name":"当当网","shop_prov_cod":0,"sim_card_balance":null,"sim_card_city_id":0,"sim_card_city_name":null,"sim_card_province_id":0,"sim_card_province_name":null,"sort_num":1,"town_id":0,"town_name":null,"cust_gift_card_used":0.80,"ship_mb_regular_express":"^((13[0-9])|(14[0-9])|(15[0-9])|(16[0-9])|(17[0-9])|(18[0-9])|(19[0-9]))\\d{8}$","gift_message":null,"gift_message_receiver":null,"gift_message_sender":null,"gift_sender_phone":null,"greetingcard_name":null,"greetingcard_type_id":0,"is_need_greetingcard":false,"print_price":false,"is_product_package":false,"is_valid_product_package":false,"package_name":null,"package_type_id":0,"little_image_url":null,"medium_image_url":null,"big_image_url":null,"card_little_image_url":null,"card_big_image_url":null,"card_price":null,"is_gift_package":false,"is_has_no_storage_jit_package":0,"identity_num":null,"conflic_code":0,"is_overseas":false,"overseas_tax":0.00,"free_overseas_tax":0.00,"from_plat_form":103,"is_show_shipment":false,"shop_type":0,"district_mall_order_type":0,"energy_saving_order":false,"customs_clearance_mode":0,"customs_declare_dealer":0,"tariff":null,"excise":null,"vat":null,"baby_in_book_order":false,"baby_in_book_id":0,"delayed_receive":null,"is_all_nocash_pay":false,"checkout_type":10,"is_installment":0,"installment_type":0,"installment_nper":0,"handling_fee":null,"repayment_rule":null,"is_vddmoney":false,"total_amount":5.99,"order_forcibly_splitted":false,"detailed_address_point_x":0.0,"detailed_address_point_y":0.0,"is_support_pickup_without_price":false,"is_default_address":false,"pack_types":[0],"first_send_time":"","first_send_time_tips":"","is_support_green_package":false,"green_package_selected":false,"is_cheap_express_order":false,"green_package_price_config":null,"template":null,"pin_tuan_activity_id":0,"pin_tuan_id":0,"get_password_way":null,"mobile_for_activate":null,"support_gift_card_mobile_verify":false,"evidences":[],"pick_up_cabinet":{"is_support_pick_up_cabinet":0,"switch_status":0,"cabinet_code":null,"cabinet_name":null,"cabinet_address":null,"cabinet_type":null,"latitude":null,"longitude":null,"distance":0.0,"is_recommend":0,"cabinets":[],"distance_display":"0m"},"is_not_show_shipping_date_type_any_time":false,"used_coupon_types":["Coupon","UsePoint","GoldenBell","GiftCard"],"free_shipping_fee":false,"deposit_money_free":false,"remind_share_package":false,"support_pickup_without_price":false,"happy_reader":false,"show_map_api":true,"show_pick_up_limit":false,"show_shipment_festiva_tip":false,"show_shipment":false,"invalid_address":true,"support_point":true,"first_cod":false,"default_address":false,"surpport_share_package":false,"fdcorder":false,"presale_order":false,"jit_order":false,"overseas":false,"support_paper_taxpayer_id":false,"gift_package":false,"product_package":false,"need_greetingcard":false,"support_gift_package":false,"valid_product_package":false,"support_alipay_scan_code":false,"cheap_express_order":false,"product_ems_disabled":false,"product_post_disabled":false,"need_valid_zip":false,"all_nocash_pay":false,"vddmoney":false,"product_upsdisabled":false,"local_arrive":true,"move_store":false,"show_send_msg":false,"only_gift":false,"support_green_package":false,"auction_order":false,"coupon_type":3,"coupon_amount":0.01,"coupon_number":"C0620080517400jAjTJelN"}],"gift_package":null,"order_promotion":[],"collection_deduct_info":[],"colletion_promo_info":[],"out_refer":null,"payable_amount":4.82,"deposit_amount":0.00,"balance_amount":0.00,"presale_type":0,"payment_password_enabled":true,"permanent_id":null,"point_amount":0.14,"point_deduction_amount":0.14,"point_max_amonut":0.14,"point_rate":100.0,"point_max_percentage":50.0,"point_config_max_amonut":50.00,"privilege_code_discount_amount":0.00,"promo_discount_amount":0.00,"public_coupon_number":"","register_mb":"19900000002","remain_cash":0.00,"remain_gift_card":11.44,"second_kill_info":null,"shipping_fee":0.00,"shopping_cart_url":"http://shopping.dangdang.com/shoppingcart/shopping_cart.aspx","sim_card_id":0,"sk_action_id":0,"product_ids":"1901093158","total":5.99,"trace_id":null,"is_first_checkout":0,"is_show_consignee":0,"order_sequence_ids":"0_98,","is_send_together":1,"show_send_together":true,"crowdfunding_forbid":"1,2,4,8","checkout_type":10,"district_mall_order_type":0,"degradation_type":0,"auction_win_price":0.00,"auction_deposit_amount":0.00,"auction_commission_amount":0.00,"point_limit_info":{"total_points":14,"pre_total_points":0,"deduct_sum_points":0,"products":[]},"spu_limit_buys":null,"freight_coupon_number":"","freight_coupon_allot_money":0.00,"vdd_money":false,"lack_product":{"lack_stock_products":null,"over_time_products":null,"multiple_gift_lack_stock_products":null,"limit_buy_products":null,"min_buy_count_lack_products":null,"set_meal_lack_products":null,"lack_gift_count":0,"lack_item_count":0,"lack_item_ids":"","lack_gift_product_ids":"","contain_min_buy_product":false,"product_id":0},"oversea_minimum_payable":null,"coupons":[{"type":0,"money4pc":0.01,"money":0.01,"memo":"电子书专用","remark":"电子书专用","min_price":0.0,"order_ids":"0_98","is_cross_order":"0","use_conditions":"限电子书商品使用","surport_specific_shop_names":null,"surport_platform_ids":null,"category_not_fit":false,"specific_product_not_fit":false,"exception_product_ids":null,"gap_amount":null,"medium_supported":null,"supported_products":[{"product_id":1901093158,"img_url":"//img3m8.ddimg.cn/19/6/1901093158-1_t_3.jpg"}],"gap_count":0,"coupon_apply_money_type":0,"min_discount_number":0,"discount_limit":null,"usable_money":0.01,"is_new_cust_coupon":false,"new_cust_coupon_reason":null,"coupon_threshold":"无门槛","used_for_all_orders":0,"new_cust_coupon":false,"current_valid":true,"coupon_num":"C0620080517400jAjTJelN","cust_id":624787430,"apply_id":176708,"shop_id":0,"medium_scope_id":5,"support_platform":0,"face_value":1.00,"start_date":"2020-08-05","end_date":"2020-12-31","minPrice4pc":0.00,"has_exception_product":false,"coupon_url":null,"use_platform":0,"is_current_valid":true,"valid_for_order":"order_ids:0_98|is_cross_order:0","shop_name":null,"product_app_url":"","time_tips":"2020.08.05 11:00至2020.12.31 23:59"}],"optima_coupons":null,"exchange_rate":0,"max_use_amount":null,"is_all_online":true,"use_coupons_items":[1901093158],"is_support_red_package_activity":false,"is_show_red_package_activity_dialog":false,"red_package_activity_serial_num":0,"red_package_activity_remain_num":0,"red_package_activity_title":null,"red_package_activity_content":null,"red_package_activity_icon":null,"red_package_activity_link":null,"grand_order_sign":null,"book_gift_ebook_description":null,"double_points_description":null,"reurn_coupon":null,"deduct_sum_points":0,"pay_duration":1440,"optimal_coupon_combination":false,"can_use_book_extraction_code":false,"can_get_free_coupon":false,"warn_get_free_coupon_delay":false,"special_province_ids":["165"],"digit_cust_type":5,"app_version":null,"payment_cashier":null,"we_chat_other_pay":false,"used_coupon_types":["Coupon","UsePoint","GoldenBell","GiftCard"],"agree":false,"support_point":true,"set_payment_password":false,"overseas":false,"support_ddvcard":false,"show_shipment_level_one":true,"show_red_package_activity_dialog":false,"only_have_overseas_order":false,"all_online":true,"support_red_package_activity":false,"show_self_pickup":true,"no_safe_ip":false,"auction_order":false,"coupon_type":3,"coupon_amount":0.01,"coupon_number":""}</t>
@@ -3581,32 +2731,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;?xml version='1.0' encoding='utf-8' standalone='yes' ?&gt;
-&lt;inputObject&gt;
+    <t>&lt;inputObject&gt;
+  &lt;cust_id&gt;&lt;![CDATA[286426563]]&gt;&lt;/cust_id&gt;
+  &lt;permanent_id&gt;&lt;![CDATA[20190717192833085550908360447620986]]&gt;&lt;/permanent_id&gt;
+  &lt;trace_id&gt;&lt;![CDATA[]]&gt;&lt;/trace_id&gt;
+  &lt;order_from_ip&gt;&lt;![CDATA[192.168.142.116]]&gt;&lt;/order_from_ip&gt;
+  &lt;is_agree&gt;&lt;![CDATA[1]]&gt;&lt;/is_agree&gt;
+  &lt;out_refer&gt;&lt;![CDATA[]]&gt;&lt;/out_refer&gt;
+  &lt;from_platform&gt;&lt;![CDATA[21]]&gt;&lt;/from_platform&gt;
+  &lt;app_key&gt;&lt;![CDATA[2010]]&gt;&lt;/app_key&gt;
+  &lt;from_url&gt;&lt;![CDATA[]]&gt;&lt;/from_url&gt;
+  &lt;order_follow_source&gt;&lt;![CDATA[|]]&gt;&lt;/order_follow_source&gt;
+  &lt;shop_id&gt;&lt;![CDATA[0]]&gt;&lt;/shop_id&gt;
+  &lt;is_received&gt;&lt;![CDATA[0]]&gt;&lt;/is_received&gt;
+  &lt;pin_tuan_activity_id&gt;&lt;![CDATA[0]]&gt;&lt;/pin_tuan_activity_id&gt;
+  &lt;pin_tuan_id&gt;&lt;![CDATA[0]]&gt;&lt;/pin_tuan_id&gt;
+  &lt;bargain_tuan_id&gt;&lt;![CDATA[0]]&gt;&lt;/bargain_tuan_id&gt;
+  &lt;bargain_activity_id&gt;&lt;![CDATA[0]]&gt;&lt;/bargain_activity_id&gt;
+  &lt;is_client_refresh&gt;&lt;![CDATA[1]]&gt;&lt;/is_client_refresh&gt;
+  &lt;gift_card_switch&gt;&lt;![CDATA[1]]&gt;&lt;/gift_card_switch&gt;
+  &lt;immediately_buy&gt;&lt;![CDATA[1]]&gt;&lt;/immediately_buy&gt;
+  &lt;checkout_type&gt;&lt;![CDATA[10]]&gt;&lt;/checkout_type&gt;
+  &lt;products_id_count&gt;&lt;![CDATA[23219914.1]]&gt;&lt;/products_id_count&gt;
+  &lt;clockcash_activity_id&gt;&lt;![CDATA[0]]&gt;&lt;/clockcash_activity_id&gt;
+  &lt;is_clockcash_shippingfee_free&gt;&lt;![CDATA[0]]&gt;&lt;/is_clockcash_shippingfee_free&gt;
+  &lt;is_new_call&gt;&lt;![CDATA[1]]&gt;&lt;/is_new_call&gt;
+&lt;/inputObject&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"energy_saving":false,"energy_saving_subsiby_amout":0.00,"enterprises_user":false,"is_show_self_pickup":true,"self_pickup_name":"朝阳自提点","self_pickup_address":"北京市朝阳区","self_pickup_tel":"0771-4227731","self_pickup_city_name":"北京市","self_pickup_town_name":"东城区","overseas_tax":0.00,"free_overseas_tax":0.00,"total_vip_privilege_money":0.00,"is_overseas":false,"shop_is_auction":0,"is_auction_order":false,"is_only_have_overseas_order":false,"jit_supplier_type":0,"is_have_limit_product":0,"pre_submit_count":0,"is_support_point":true,"point_only_use_for_ebook":false,"activity_fee_total":0.00,"is_show_payment_level_one":true,"payment_groups":[{"sort_nums":"1","pay_type_name":null}],"payment_list":[{"pay_id":"WeChatpay","pay_type":"Online","order_sequence_id":"0_0"}],"IsShowInvoiceLevelOne":true,"InvoiceGroups":[{"SortNums":"1","InvoiceCategory":0,"InvoiceTitle":"","InvoiceContent":null,"invoice_need":false,"IsVatNeed":0,"InvoiceTel":null,"invoice_book_content":null,"invoice_nonbook_content":null,"taxpayer_id":"","IsInvoiceNeed":false}],"is_show_shipment_level_one":true,"shipment_groups":[{"sort_nums":"1","ship_type_name":"普通快递送货上门","ship_date_type":3}],"errorCode":0,"error_message":null,"statusCode":0,"app_setting":{"is_support_point":true,"paycenter_link":null,"support_point":true},"bargin_total":148.50,"cart_id":0,"cart_items_count":1,"changed_points":48920,"checkout_tips":"","coupon_amount4p":8.00,"coupon_number4p":"","coupon_type4p":1,"thm_has_binded":true,"thm_amount":0.00,"gift_card_number":null,"gift_card_money":210.00,"gift_card_all_category":200.00,"gift_card_book_balance":10.00,"gift_card_order_type":0,"gift_card_use_type":0,"gift_card_is_support":1,"gift_card_config":[{"shop_id":0,"shop_name":"当当网","support":true}],"special_giftcard_dispaly_flag":1,"common_vip_balance":0.00,"cmcc_balance":0.00,"maybe_support_gift_card_type":[-1],"no_seven_days_support_products":[],"direct_checkout":true,"card_un_active_count":0,"card_un_active_amount":0.00,"secret_key":null,"mobile_for_key_back":null,"clock_cash_balance":null,"clock_cash_used_money":null,"clock_cash_used_count":null,"clock_cash_activity_id":0,"cust_cash":198.39,"cust_cash_used":0.00,"ddv_card_amount":200.00,"ddv_card_max_use_amount":200.00,"ddv_card_charge_amount":0.00,"ddv_card_use_amount":0.00,"is_support_ddvcard":true,"no_support_ddvshops":[],"cust_golden_bell":0,"cust_golden_bell_amount":0.00,"cust_golden_bell_max_use_amount":0.00,"cust_golden_bell_max_use_num":0,"cust_golden_bell_used":0,"cust_golden_bell_used_amount":0.00,"cust_email":"wyz123@dangdang.com","cust_id":50016786,"cust_point":48920,"pre_cust_point":0,"cust_point_used":0,"book_extraction_code_used":0.00,"cust_type":2,"device_id":null,"from_platform":21,"from_url":"","gift_card_charge":0.00,"gift_card_money_used":0.00,"gift_package_price":0.00,"green_package_price":0.00,"grand_order_id":0,"greeting_card_price":0.00,"total_gift_package_price":0.00,"is_agree":false,"is_cattle":0,"is_no_safe_ip":false,"is_set_payment_password":true,"min_cust_cash_password_limit":10.00,"min_gift_card_password_limit":10.00,"dd_vcard_password_limit":0.00,"no_extra_charge_total":140.50,"order_flow_invalid_code":0,"order_from_ip":"192.168.142.116","order_list":[{"large_order":false,"wait_pay_time":0,"split_combine_type":0,"expected_delivery_time_start":null,"expected_delivery_time_end":null,"is_fdcorder":false,"is_move_store":false,"is_presale_order":false,"is_auction_order":false,"auction_deposit":0.00,"auction_commission":0.00,"presale_type":0,"deposit_amount":0.00,"balance_amount":0.00,"is_jit_order":false,"sk_action_id":0,"is_support_point":true,"activity_fee_total":0.00,"vip_privilege_money":0.00,"receivable_amount":148.50,"address_status":1,"addr_id":32553992,"address_tag":0,"warning_address":false,"modify_quarter_id":111010539,"modify_quarter_name":"香河园街道","app_setting":"","cart_items":[{"is_limit_buy_excess_product":0,"is_relation_product":0,"promo_model":[],"order_sequence_id":"0_0","shop_id":0,"product_name":"数学帮帮忙（全25册，多功能数学绘本，荣获美国《学习杂志》教师推荐儿童读物奖，人教社小学数学教育专家推荐，两小千金妈妈精心撰写导读手册，附赠原版英文，培养孩子严谨、辩证的数学思维，帮孩子爱上数学！）","product_id":"23219914","exchange_product_items":[],"relation_product_items":null,"gift_product_items":[],"is_exchange_product":0,"is_gift_product":0,"parent_product_id":0,"product_count":1,"promotion_id":0,"promotion_type":"","discount":"66","gift_card_rate":0.0,"cart_prod_type":"","dangdang_price":148.50,"is_gift_packaging":true,"is_have_discount":false,"is_presale":false,"presale_type":0,"deposit_amount":0.00,"is_auction":false,"auction_deposit":0.00,"auction_commission":0.00,"item_id":23219914,"product_type":0,"sale_price":148.50,"store_name":"","vip_price":148.50,"district_mall_product_type":0,"img_url":"//img3m4.ddimg.cn/58/9/23219914-1_t.jpg","has_seckill_promotion":false,"main_item_id":0,"unique_id":"i_23219914","sale_attributes":[],"sale_size":null,"product_activity_type":0,"district_price":null,"have_discount":false,"presale":false,"auction":false,"gift_packaging":true}],"cert_address":null,"cert_city_id":0,"cert_city_name":null,"cert_expiry_end_date":null,"cert_expiry_start_date":null,"cert_number":null,"cert_province_id":0,"city_desc":null,"city_gm_warehouse_id":37,"city_id":1,"city_is_book_express_to_door":true,"city_is_cod":true,"city_is_cod_pos":true,"city_is_express_to_door":true,"city_is_four_hour_to_door":false,"city_is_gm_express_to_door":true,"city_is_international_express":false,"city_is_move_store_enabled":false,"city_is_night_send":false,"city_is_pick_up":false,"city_is_post_disabled":false,"city_is_to_door":true,"city_name":"","city_ship_type_desc":"","city_warehouse_id":30,"country_id":9000,"country_name":"中国","coupon_amount4p":8.00,"coupon_number4p":"C0220090413210TSnzuEFC","freight_coupon_allot_money":0.00,"freight_coupon_number":null,"coupon_type4p":1,"cur_edit_step":-1,"cust_cash_used":0.00,"cust_choice_package":0,"cust_name":"wyz123","cust_point_used":0,"cust_tel":"13265659898","expect_delivery_time_end":null,"expect_delivery_time_start":null,"first_month_fee_intro":null,"first_month_fee_type":0,"first_month_return_fee":null,"flow_step":3,"free_shippingfee_gap":-1.00,"gift_card_charge":0.00,"giftcard_exception_tips":"","gift_package_price":0.00,"gm_free_shippingfee_gap":null,"gm_free_shippingfee_gap_ship_express":null,"gm_free_shippingfee_gap_ship_plain":null,"greeting_card_price":0.00,"has_charge_product":false,"has_order_promotion":false,"display_order_promotion":null,"contain3c":0,"invoice_content":null,"invoice_edit_status":false,"invoice_need":false,"invoice_title":"","invoice_tel":null,"invoice_category":0,"invoice_restrict":2,"invoice_book_content":null,"invoice_nonbook_content":null,"taxpayer_id":"","is_support_paper_taxpayer_id":true,"is_deposit_money_free":false,"is_first_cod":false,"is_support_gift_package":false,"is_support_alipay_scan_code":true,"is_invalid_address":true,"isInvoiceContentValid":true,"is_local_arrive":true,"is_need_valid_zip":false,"is_only_gift":false,"is_open_gift_package":1,"is_other_pay":0,"is_product_ems_disabled":false,"is_product_post_disabled":false,"is_product_upsdisabled":false,"is_public_name":0,"is_share_package_order":0,"is_show_map_api":false,"is_show_pick_up_limit":false,"is_show_send_msg":true,"is_show_shipment_festiva_tip":false,"is_support_baidu_map":1,"is_suppot_free_shipping_fee":0,"is_surpport_share_package":false,"is_remind_share_package":false,"is_vat_need":0,"lack_property":[{"address_names":"朝阳区"}],"limit_buy":[],"mobile_price":null,"monthly_fee":null,"monthly_return_fee":null,"need_send_order_sms":0,"net_type":null,"old_town_id":111010502,"order_bargin_total":148.50,"order_gift_dict":null,"order_items_type":1,"order_payable_amount":140.50,"order_sequence_id":"0_0","order_shipping_fee":0.00,"order_type":0,"is_happy_reader":false,"other_pay_id":0,"over_sms_cost":null,"package_list":[{"is_temporary_or_transport":0,"is_send_together":1,"is_presale_package":false,"activity_fee_list":[],"activity_fee_total":0.00,"activity_list":[],"address_names":null,"cart_item_count":0,"cod_product_ids":null,"collection_deduct_info":null,"coupon_amount":null,"coupon_number":null,"cust_cash_used":null,"cust_point_used":0,"delay_desc":null,"gift_card_charge":null,"gift_package_price":null,"greeting_card_price":null,"has_charge_product":false,"have_gm":false,"have_publication":0,"is_cod_limit":true,"is_division_package_order":0,"is_ebook":false,"is_ebook_order":0,"is_have_lack_type":false,"is_have_no_shipment":false,"is_limit_buy":false,"is_limit_small_warehouse":false,"is_meet_mulit":false,"is_split_product_order":0,"jit_supplier_id":0,"lack_product_ids":null,"move_store_flag":null,"not_cod_product_names":null,"order_gift_dict":null,"order_id":0,"order_items_type":1,"order_prom_subtract":null,"package_bargin_total":null,"package_id":1,"package_payable_amount":140.50,"package_shipping_fee":0.00,"point_deduction_amount":null,"product_ids":null,"prods_limit_cod":null,"product_list":[{"unique_id":"i_23219914","move_from_warehouse_list":[],"bargain_price":148.50,"is_pod":false,"template_id":0,"category_id":50524,"category_path":"01.41.45.13.00.00","activity_type":0,"cod_small_warehouse_id":0,"coupon_limit":0,"dang_dang_price":null,"ex_change_product_items":null,"gift_card_charge":null,"is_ebook_product":false,"is_exchange_product":false,"is_gift_packaging":false,"is_gift_product":false,"is_limit_buy":false,"is_presale":false,"presale_type":0,"is_product_cod_permit":true,"is_second_kill":false,"item_id":0,"limit_buy_count":0,"medium":0,"medium_scope_id":1,"m_promotin_id":0,"m_promotion_type":null,"original_price":225.00,"parent_product_id":0,"permanent_id":null,"privilege_code_discount_amount":null,"product_count":1,"product_id":23219914,"product_name":"数学帮帮忙（全25册，多功能数学绘本，荣获美国《学习杂志》教师推荐儿童读物奖，人教社小学数学教育专家推荐，两小千金妈妈精心撰写导读手册，附赠原版英文，培养孩子严谨、辩证的数学思维，帮孩子爱上数学！）","product_type":0,"promotion_id":0,"promotions":null,"promotion_type":null,"sale_price":148.50,"shipping_fee":null,"shop_id":0,"store_name":null,"trace_id":null,"vip_price":148.50,"volume":0.0,"weight":0.0,"is_free_refund_in7d":true,"img_url":"//img3m4.ddimg.cn/58/9/23219914-1_t.jpg","presale_model":null,"collection_promo_models":null,"order_promo_models":null,"district_mall_product_type":0,"district_price":null,"is_virtual_product":false,"display_virtual_items":null,"is_more_buy_more_discount_product":false,"is_outlets_product":false,"is_most_worth":false,"is_new_product":false,"is_decrease_with_num_limit":false,"is_mobile_price":false,"display_gifts":null,"vip_discount_amount":0.00,"promo_tag":null,"sale_color":null,"sale_size":null,"deduct_points":0,"is_pmin_limit_buy":false,"min_limit_buy_count":0,"overseas_tax":0.00,"mpromotion_type":null,"most_worth":false,"new_product":false,"mobile_price":false,"presale":false,"free_refund_in7d":true,"virtual_product":false,"limit_buy":0,"pod":false,"more_buy_more_discount_product":false,"gift_packaging":false,"gift_product":false,"exchange_product":false,"ebook_product":false,"product_cod_permit":true,"outlets_product":false,"decrease_with_num_limit":false,"second_kill":false,"pmin_limit_buy":false,"mpromotin_id":0}],"send_time":"2020年08月06日","send_time_tips":"10:25前付款，预计08月06日送达","shop_id":0,"store_id":30,"store_name":null,"split_combine_type":"NonSplitCombine","total":148.50,"jit_supplier_type":0,"estimated_delivery_time":"2020-08-06 12:00:00:00","latest_pay_time":"2020-08-06 10:25:00:00","share_same_promo_or_coupon":false,"calc_type":0,"calc_value":0.0,"transport_arrivalwh_date":null,"notice_desc":null,"notice_start_date":null,"limit_small_warehouse":false,"presale_package":false,"cod_limit":true,"ebook":false,"limit_buy":false,"have_no_shipment":false,"meet_mulit":false,"have_lack_type":false}],"packing_type_name":"","parent_order_id":0,"payer_email":null,"payer_message":null,"payer_mess_id":0,"payer_phone":null,"pay_for_other_long_url":null,"pay_for_other_short_url":null,"pay_id":82,"pay_type":1,"pay_type_name":null,"pick_up_id":0,"pick_up_limit_tips":"","pick_up_name":null,"pick_up_town_id":0,"pick_up_town_name":"","pick_up_city_id":0,"pick_up_city_name":"","pick_up_quarter_id":0,"pick_up_quarter_name":"","pick_up_address":"","pick_up_tel":"","plan_fee_type_name":null,"plan_id":0,"plan_name":null,"plan_period":0,"plan_period_id":0,"point_deduction_amount":0.00,"pre_store_fee":null,"price_structure_id":0,"probable_gift_card_amount":0.00,"probable_gift_card_charge":0.00,"prods_lack":[],"prods_limit_cod":[],"prods_limit_ship":null,"promotion_type":0,"province_id":111,"province_name":"北京","public_coupon_number":"","quarter_id":111010502,"quarter_name":"奥运村街道","register_mb":"13265659898","remain_cash":198.39,"remain_gift_card":210.00,"return_money_description":null,"self_exceptions":null,"self_exceptions2":null,"sender_description":"当当网配送","ship_address":"北三环东路8号 静安中心","ship_date_type":3,"ship_mb":"13588887777","ship_message":"","ship_name":"删了库简单法","ship_tel":"","ship_type":1,"ship_type_name":"普通快递送货上门","ship_zip":"100736","shop_id":0,"shop_is_auction":0,"shop_name":"当当网","shop_prov_cod":0,"sim_card_balance":null,"sim_card_city_id":0,"sim_card_city_name":null,"sim_card_province_id":0,"sim_card_province_name":null,"sort_num":1,"town_id":1110105,"town_name":"朝阳区","cust_gift_card_used":0.00,"ship_mb_regular_express":"^((13[0-9])|(14[0-9])|(15[0-9])|(16[0-9])|(17[0-9])|(18[0-9])|(19[0-9]))\\d{8}$","gift_message":null,"gift_message_receiver":null,"gift_message_sender":null,"gift_sender_phone":null,"greetingcard_name":null,"greetingcard_type_id":0,"is_need_greetingcard":false,"print_price":false,"is_product_package":false,"is_valid_product_package":false,"package_name":null,"package_type_id":0,"little_image_url":null,"medium_image_url":null,"big_image_url":null,"card_little_image_url":null,"card_big_image_url":null,"card_price":null,"is_gift_package":false,"is_has_no_storage_jit_package":0,"identity_num":null,"conflic_code":0,"is_overseas":false,"overseas_tax":0.00,"free_overseas_tax":0.00,"from_plat_form":21,"is_show_shipment":false,"shop_type":0,"district_mall_order_type":0,"energy_saving_order":false,"customs_clearance_mode":0,"customs_declare_dealer":0,"tariff":null,"excise":null,"vat":null,"baby_in_book_order":false,"baby_in_book_id":0,"delayed_receive":null,"is_all_nocash_pay":false,"checkout_type":10,"is_installment":0,"installment_type":0,"installment_nper":0,"handling_fee":null,"repayment_rule":null,"is_vddmoney":false,"total_amount":148.50,"order_forcibly_splitted":false,"detailed_address_point_x":0.0,"detailed_address_point_y":0.0,"is_support_pickup_without_price":false,"is_default_address":true,"pack_types":[0],"first_send_time":"2020年08月06日","first_send_time_tips":"10:25前付款，预计08月06日送达","is_support_green_package":false,"green_package_selected":false,"is_cheap_express_order":false,"green_package_price_config":null,"template":{"shipping_fee1":5.00,"shipping_fee2":0.00,"shipping_fee3":0.00,"shipping_fee4":null,"shipping_fee5":null,"order_price1":49.00,"order_price2":200.00,"order_price3":null,"order_price4":null},"pin_tuan_activity_id":0,"pin_tuan_id":0,"get_password_way":null,"mobile_for_activate":null,"support_gift_card_mobile_verify":false,"evidences":[],"pick_up_cabinet":{"is_support_pick_up_cabinet":1,"switch_status":0,"cabinet_code":"FC-FC0101095","cabinet_name":"金隆基大厦正门外西侧","cabinet_address":"隆福寺街99号","cabinet_type":"FC","latitude":"39.925764","longitude":"116.412920","distance":410.0,"is_recommend":1,"cabinets":[{"cabinet_code":"FC-FC0101095","cabinet_name":"金隆基大厦正门外西侧","cabinet_address":"隆福寺街99号","cabinet_type":"FC","latitude":"39.925764","longitude":"116.412920","distance":410.0,"is_recommend":1,"is_checked":1,"distance_display":"410m"},{"cabinet_code":"FC-FC0100540","cabinet_name":"北京INN 8号楼A座大堂","cabinet_address":"南竹竿胡同6号","cabinet_type":"FC","latitude":"39.922110","longitude":"116.431656","distance":1517.0,"is_recommend":0,"is_checked":0,"distance_display":"1.517km"},{"cabinet_code":"FC-F10100005","cabinet_name":"东环国际广场北公寓B一电梯出口处","cabinet_address":"东中街29号东环广场北公寓","cabinet_type":"FC","latitude":"39.935985","longitude":"116.435616","distance":1863.0,"is_recommend":0,"is_checked":0,"distance_display":"1.863km"},{"cabinet_code":"FC-F10100215","cabinet_name":"晨曦园大门岗亭旁","cabinet_address":"八里庄西里2号","cabinet_type":"FC","latitude":"39.911013","longitude":"116.413554","distance":1966.0,"is_recommend":0,"is_checked":0,"distance_display":"1.966km"},{"cabinet_code":"FC-F10101042","cabinet_name":"雅宝公寓小区北门岗亭外","cabinet_address":"大雅宝胡同8号院","cabinet_type":"FC","latitude":"39.914843","longitude":"116.432503","distance":2078.0,"is_recommend":0,"is_checked":0,"distance_display":"2.078km"},{"cabinet_code":"FC-F10100595","cabinet_name":"祥业大厦一层员工通道值班处","cabinet_address":"朝阳门外大街17号","cabinet_type":"FC","latitude":"39.924809","longitude":"116.440064","distance":2094.0,"is_recommend":0,"is_checked":0,"distance_display":"2.094km"},{"cabinet_code":"FC-F20100843","cabinet_name":"安馨园小区院内保安亭旁","cabinet_address":"安定门内花园东巷29号","cabinet_type":"FC","latitude":"39.946079","longitude":"116.404716","distance":2168.0,"is_recommend":0,"is_checked":0,"distance_display":"2.168km"},{"cabinet_code":"FC-F30101452","cabinet_name":"安外东河沿2号楼大门丰巢快递柜","cabinet_address":"安外东河沿2号楼","cabinet_type":"FC","latitude":"39.950357","longitude":"116.414144","distance":2424.0,"is_recommend":0,"is_checked":0,"distance_display":"2.424km"}],"distance_display":"410m"},"is_not_show_shipping_date_type_any_time":false,"used_coupon_types":["Coupon"],"free_shipping_fee":false,"deposit_money_free":false,"remind_share_package":false,"support_pickup_without_price":false,"invalid_address":true,"coupon_type":1,"coupon_amount":8.00,"coupon_number":"C0220090413210TSnzuEFC","need_valid_zip":false,"product_package":false,"need_greetingcard":false,"gift_package":false,"support_alipay_scan_code":true,"product_ems_disabled":false,"product_post_disabled":false,"support_paper_taxpayer_id":true,"overseas":false,"cheap_express_order":false,"default_address":true,"product_upsdisabled":false,"local_arrive":true,"fdcorder":false,"jit_order":false,"presale_order":false,"move_store":false,"surpport_share_package":false,"support_point":true,"support_green_package":false,"vddmoney":false,"all_nocash_pay":false,"support_gift_package":false,"auction_order":false,"valid_product_package":false,"happy_reader":false,"show_map_api":false,"show_pick_up_limit":false,"show_shipment_festiva_tip":false,"show_shipment":false,"only_gift":false,"first_cod":false,"show_send_msg":true}],"gift_package":null,"order_promotion":[],"collection_deduct_info":[],"colletion_promo_info":[],"out_refer":null,"payable_amount":140.50,"deposit_amount":0.00,"balance_amount":0.00,"presale_type":0,"payment_password_enabled":true,"permanent_id":"20190717192833085550908360447620986","point_amount":50.00,"point_deduction_amount":0.00,"point_max_amonut":50.00,"point_rate":100.0,"point_max_percentage":50.0,"point_config_max_amonut":50.00,"privilege_code_discount_amount":0.00,"promo_discount_amount":0.00,"public_coupon_number":"","register_mb":"13265659898","remain_cash":198.39,"remain_gift_card":210.00,"second_kill_info":null,"shipping_fee":0.00,"shopping_cart_url":"http://shopping.dangdang.com/shoppingcart/shopping_cart.aspx","sim_card_id":0,"sk_action_id":0,"product_ids":"23219914","total":148.50,"trace_id":"","is_first_checkout":0,"is_show_consignee":1,"order_sequence_ids":"0_0,","is_send_together":1,"show_send_together":true,"crowdfunding_forbid":"1,2,4,8","checkout_type":10,"district_mall_order_type":0,"degradation_type":0,"auction_win_price":0.00,"auction_deposit_amount":0.00,"auction_commission_amount":0.00,"point_limit_info":{"total_points":48920,"pre_total_points":0,"deduct_sum_points":0,"products":[]},"spu_limit_buys":null,"freight_coupon_number":"","freight_coupon_allot_money":0.00,"vdd_money":false,"lack_product":{"lack_stock_products":null,"over_time_products":null,"multiple_gift_lack_stock_products":null,"limit_buy_products":null,"min_buy_count_lack_products":null,"set_meal_lack_products":null,"lack_gift_count":0,"lack_item_count":0,"lack_item_ids":"","lack_gift_product_ids":"","contain_min_buy_product":false,"product_id":0},"oversea_minimum_payable":null,"coupons":[{"type":0,"money4pc":8.00,"money":8.0,"memo":"全场通用(自营+招商)","remark":"全场通用满65元可用","min_price":65.0,"order_ids":"0_0","is_cross_order":"0","use_conditions":"指定商品可用","surport_specific_shop_names":null,"surport_platform_ids":null,"category_not_fit":false,"specific_product_not_fit":false,"exception_product_ids":null,"gap_amount":null,"medium_supported":null,"supported_products":[{"product_id":23219914,"img_url":"//img3m4.ddimg.cn/58/9/23219914-1_t.jpg"}],"gap_count":0,"coupon_apply_money_type":0,"min_discount_number":0,"discount_limit":null,"usable_money":8.00,"is_new_cust_coupon":false,"new_cust_coupon_reason":null,"coupon_threshold":"满65元可用","wenhui":false,"used_for_all_orders":1,"new_cust_coupon":false,"current_valid":true,"coupon_num":"C0220090413210TSnzuEFC","cust_id":50016786,"apply_id":12238,"shop_id":0,"medium_scope_id":6,"support_platform":2,"face_value":8.00,"start_date":"2020-09-03","end_date":"2021-09-04","minPrice4pc":65.00,"has_exception_product":false,"coupon_url":null,"use_platform":0,"is_current_valid":true,"valid_for_order":"order_ids:0_0|is_cross_order:0","shop_name":null,"product_app_url":"","time_tips":"2020.09.03 00:00至2021.09.04 23:59"},{"type":0,"money4pc":5.00,"money":5.0,"memo":"全场通用(自营)","remark":"自营全场通用满70元可用","min_price":70.0,"order_ids":"0_0","is_cross_order":"0","use_conditions":"限当当自营商品使用","surport_specific_shop_names":null,"surport_platform_ids":null,"category_not_fit":false,"specific_product_not_fit":false,"exception_product_ids":null,"gap_amount":null,"medium_supported":null,"supported_products":[{"product_id":23219914,"img_url":"//img3m4.ddimg.cn/58/9/23219914-1_t.jpg"}],"gap_count":0,"coupon_apply_money_type":0,"min_discount_number":0,"discount_limit":null,"usable_money":5.00,"is_new_cust_coupon":false,"new_cust_coupon_reason":null,"coupon_threshold":"满70元可用","wenhui":false,"used_for_all_orders":0,"new_cust_coupon":false,"current_valid":true,"coupon_num":"C0220083121390NCcOSbAh","cust_id":50016786,"apply_id":12222,"shop_id":0,"medium_scope_id":0,"support_platform":0,"face_value":5.00,"start_date":"2020-08-25","end_date":"2020-12-25","minPrice4pc":70.00,"has_exception_product":false,"coupon_url":null,"use_platform":0,"is_current_valid":true,"valid_for_order":"order_ids:0_0|is_cross_order:0","shop_name":null,"product_app_url":"http://backoffice.dangdang.com/index.aspx","time_tips":"2020.08.25 00:00至2020.12.25 23:59"},{"type":0,"money4pc":5.00,"money":5.0,"memo":"全场通用(自营)","remark":"自营全场通用满70元可用","min_price":70.0,"order_ids":"0_0","is_cross_order":"0","use_conditions":"限当当自营商品使用","surport_specific_shop_names":null,"surport_platform_ids":null,"category_not_fit":false,"specific_product_not_fit":false,"exception_product_ids":null,"gap_amount":null,"medium_supported":null,"supported_products":[{"product_id":23219914,"img_url":"//img3m4.ddimg.cn/58/9/23219914-1_t.jpg"}],"gap_count":0,"coupon_apply_money_type":0,"min_discount_number":0,"discount_limit":null,"usable_money":5.00,"is_new_cust_coupon":false,"new_cust_coupon_reason":null,"coupon_threshold":"满70元可用","wenhui":false,"used_for_all_orders":0,"new_cust_coupon":false,"current_valid":true,"coupon_num":"C0220083120370hBRXjFDu","cust_id":50016786,"apply_id":12222,"shop_id":0,"medium_scope_id":0,"support_platform":0,"face_value":5.00,"start_date":"2020-08-25","end_date":"2020-12-25","minPrice4pc":70.00,"has_exception_product":false,"coupon_url":null,"use_platform":0,"is_current_valid":true,"valid_for_order":"order_ids:0_0|is_cross_order:0","shop_name":null,"product_app_url":"http://backoffice.dangdang.com/index.aspx","time_tips":"2020.08.25 00:00至2020.12.25 23:59"},{"type":0,"money4pc":3.00,"money":3.0,"memo":"全场通用(自营+招商)huj","remark":"全场通用满3333元可用","min_price":3333.0,"order_ids":null,"is_cross_order":null,"use_conditions":"指定商品可用","surport_specific_shop_names":null,"surport_platform_ids":null,"category_not_fit":false,"specific_product_not_fit":false,"exception_product_ids":null,"gap_amount":3184.50,"medium_supported":null,"supported_products":null,"gap_count":0,"coupon_apply_money_type":0,"min_discount_number":0,"discount_limit":null,"usable_money":0.00,"is_new_cust_coupon":false,"new_cust_coupon_reason":null,"coupon_threshold":"满3333元可用","wenhui":false,"used_for_all_orders":1,"new_cust_coupon":false,"current_valid":false,"coupon_num":"C0220082515140HdyHHExe","cust_id":50016786,"apply_id":12218,"shop_id":0,"medium_scope_id":6,"support_platform":2,"face_value":3.00,"start_date":"2020-08-24","end_date":"2020-10-24","minPrice4pc":3333.00,"has_exception_product":false,"coupon_url":null,"use_platform":0,"is_current_valid":false,"valid_for_order":"","shop_name":null,"product_app_url":"","time_tips":"2020.08.24 00:00至2020.10.24 23:59"},{"type":0,"money4pc":3.00,"money":3.0,"memo":"全场通用(自营+招商)huj","remark":"全场通用满3333元可用","min_price":3333.0,"order_ids":null,"is_cross_order":null,"use_conditions":"指定商品可用","surport_specific_shop_names":null,"surport_platform_ids":null,"category_not_fit":false,"specific_product_not_fit":false,"exception_product_ids":null,"gap_amount":3184.50,"medium_supported":null,"supported_products":null,"gap_count":0,"coupon_apply_money_type":0,"min_discount_number":0,"discount_limit":null,"usable_money":0.00,"is_new_cust_coupon":false,"new_cust_coupon_reason":null,"coupon_threshold":"满3333元可用","wenhui":false,"used_for_all_orders":1,"new_cust_coupon":false,"current_valid":false,"coupon_num":"C0220082516000qfkHNCyl","cust_id":50016786,"apply_id":12218,"shop_id":0,"medium_scope_id":6,"support_platform":2,"face_value":3.00,"start_date":"2020-08-24","end_date":"2020-10-24","minPrice4pc":3333.00,"has_exception_product":false,"coupon_url":null,"use_platform":0,"is_current_valid":false,"valid_for_order":"","shop_name":null,"product_app_url":"","time_tips":"2020.08.24 00:00至2020.10.24 23:59"}],"optima_coupons":[{"type":0,"money4pc":8.00,"money":8.0,"memo":"全场通用(自营+招商)","remark":"全场通用满65元可用","min_price":65.0,"order_ids":"0_0","is_cross_order":"0","use_conditions":"指定商品可用","surport_specific_shop_names":null,"surport_platform_ids":null,"category_not_fit":false,"specific_product_not_fit":false,"exception_product_ids":null,"gap_amount":null,"medium_supported":null,"supported_products":[{"product_id":23219914,"img_url":"//img3m4.ddimg.cn/58/9/23219914-1_t.jpg"}],"gap_count":0,"coupon_apply_money_type":0,"min_discount_number":0,"discount_limit":null,"usable_money":8.00,"is_new_cust_coupon":false,"new_cust_coupon_reason":null,"coupon_threshold":"满65元可用","wenhui":false,"used_for_all_orders":1,"new_cust_coupon":false,"current_valid":true,"coupon_num":"C0220090413210TSnzuEFC","cust_id":50016786,"apply_id":12238,"shop_id":0,"medium_scope_id":6,"support_platform":2,"face_value":8.00,"start_date":"2020-09-03","end_date":"2021-09-04","minPrice4pc":65.00,"has_exception_product":false,"coupon_url":null,"use_platform":0,"is_current_valid":true,"valid_for_order":"order_ids:0_0|is_cross_order:0","shop_name":null,"product_app_url":"","time_tips":"2020.09.03 00:00至2021.09.04 23:59"}],"exchange_rate":0,"max_use_amount":null,"is_all_online":true,"use_coupons_items":[23219914],"is_support_red_package_activity":false,"is_show_red_package_activity_dialog":false,"red_package_activity_serial_num":0,"red_package_activity_remain_num":0,"red_package_activity_title":null,"red_package_activity_content":null,"red_package_activity_icon":null,"red_package_activity_link":null,"grand_order_sign":null,"book_gift_ebook_description":null,"double_points_description":null,"reurn_coupon":null,"deduct_sum_points":0,"pay_duration":1440,"optimal_coupon_combination":true,"can_use_book_extraction_code":true,"can_get_free_coupon":false,"warn_get_free_coupon_delay":false,"special_province_ids":["165"],"digit_cust_type":0,"app_version":null,"payment_cashier":null,"we_chat_other_pay":true,"notice_desc":null,"notice_start_date":null,"notice_package_id":1,"used_coupon_types":["Coupon"],"coupon_type":1,"coupon_amount":8.00,"coupon_number":"","all_online":true,"agree":false,"no_safe_ip":false,"show_shipment_level_one":true,"support_red_package_activity":false,"show_red_package_activity_dialog":false,"show_self_pickup":true,"overseas":false,"support_point":true,"support_ddvcard":true,"only_have_overseas_order":false,"set_payment_password":true,"auction_order":false}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;inputObject&gt;
     &lt;deviceType&gt;&lt;![CDATA[Android]]&gt;&lt;/deviceType&gt;
-    &lt;trace_id&gt;&lt;![CDATA[20200721015930143856163189044707581]]&gt;&lt;/trace_id&gt;
     &lt;checkout_type&gt;&lt;![CDATA[10]]&gt;&lt;/checkout_type&gt;
+    &lt;dangdang_money_payable&gt;&lt;![CDATA[0.8]]&gt;&lt;/dangdang_money_payable&gt;
     &lt;from_platform&gt;&lt;![CDATA[103]]&gt;&lt;/from_platform&gt;
-    &lt;is_client_refresh&gt;&lt;![CDATA[1]]&gt;&lt;/is_client_refresh&gt;
     &lt;immediately_buy&gt;&lt;![CDATA[1]]&gt;&lt;/immediately_buy&gt;
-    &lt;permanent_id&gt;&lt;![CDATA[20200721015930143856163189044707581]]&gt;&lt;/permanent_id&gt;
     &lt;ddOrder&gt;&lt;![CDATA[1]]&gt;&lt;/ddOrder&gt;
     &lt;version&gt;&lt;![CDATA[1]]&gt;&lt;/version&gt;
+    &lt;gift_card_use_type&gt;&lt;![CDATA[-1]]&gt;&lt;/gift_card_use_type&gt;
     &lt;retain_type&gt;&lt;![CDATA[1]]&gt;&lt;/retain_type&gt;
-    &lt;from_url&gt;&lt;![CDATA[30000]]&gt;&lt;/from_url&gt;
-    &lt;token&gt;&lt;![CDATA[e_6cbb25f1b7cd83b422429dd262442e7ccad9a645cf1cd9d0faba0d9bf091a7a9]]&gt;&lt;/token&gt;
-    &lt;cart_id&gt;&lt;![CDATA[640949916]]&gt;&lt;/cart_id&gt;
+    &lt;token&gt;&lt;![CDATA[e_3a9958bbe86c178046baa8f88a7b7ef3b0c4e8fd17c0070b209172e57e6ef364]]&gt;&lt;/token&gt;
+    &lt;order_sequence_id&gt;&lt;![CDATA[0_0]]&gt;&lt;/order_sequence_id&gt;
+    &lt;cart_id&gt;&lt;![CDATA[624787430]]&gt;&lt;/cart_id&gt;
     &lt;is_use_coupon&gt;&lt;![CDATA[1]]&gt;&lt;/is_use_coupon&gt;
-    &lt;order_follow_source&gt;&lt;![CDATA[30000]]&gt;&lt;/order_follow_source&gt;
-    &lt;products_id_count&gt;&lt;![CDATA[1900601494.1]]&gt;&lt;/products_id_count&gt;
-    &lt;out_refer&gt;&lt;![CDATA[]]&gt;&lt;/out_refer&gt;
-    &lt;cust_email&gt;&lt;![CDATA[suzhaozheng@126.com]]&gt;&lt;/cust_email&gt;
-    &lt;cust_type&gt;&lt;![CDATA[3]]&gt;&lt;/cust_type&gt;
-    &lt;nick_name&gt;&lt;![CDATA[沈轻箫]]&gt;&lt;/nick_name&gt;
-    &lt;user_phone&gt;&lt;![CDATA[17612280316]]&gt;&lt;/user_phone&gt;
-    &lt;order_from_ip&gt;&lt;![CDATA[]]&gt;&lt;/order_from_ip&gt;
-    &lt;is_agree&gt;&lt;![CDATA[true]]&gt;&lt;/is_agree&gt;
-    &lt;cust_id&gt;&lt;![CDATA[50248016]]&gt;&lt;/cust_id&gt;
+    &lt;products_id_count&gt;&lt;![CDATA[1901093158.1]]&gt;&lt;/products_id_count&gt;
+    &lt;cust_id&gt;&lt;![CDATA[624787430]]&gt;&lt;/cust_id&gt;
 &lt;/inputObject&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3626,6 +2799,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3945,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3979,108 +3153,108 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4088,13 +3262,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -4102,13 +3276,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
